--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.539733</v>
+        <v>0.7715313333333333</v>
       </c>
       <c r="H2">
-        <v>1.619199</v>
+        <v>2.314594</v>
       </c>
       <c r="I2">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="J2">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.230514</v>
+        <v>21.31848966666667</v>
       </c>
       <c r="N2">
-        <v>36.69154200000001</v>
+        <v>63.955469</v>
       </c>
       <c r="O2">
-        <v>0.4767524845277323</v>
+        <v>0.5519683995553906</v>
       </c>
       <c r="P2">
-        <v>0.4767524845277322</v>
+        <v>0.5519683995553906</v>
       </c>
       <c r="Q2">
-        <v>6.601212012762001</v>
+        <v>16.44788275717622</v>
       </c>
       <c r="R2">
-        <v>59.41090811485801</v>
+        <v>148.030944814586</v>
       </c>
       <c r="S2">
-        <v>0.01614323124615599</v>
+        <v>0.02854950799367991</v>
       </c>
       <c r="T2">
-        <v>0.01614323124615598</v>
+        <v>0.02854950799367991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.539733</v>
+        <v>0.7715313333333333</v>
       </c>
       <c r="H3">
-        <v>1.619199</v>
+        <v>2.314594</v>
       </c>
       <c r="I3">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="J3">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.417539666666666</v>
+        <v>2.417539666666667</v>
       </c>
       <c r="N3">
-        <v>7.252618999999999</v>
+        <v>7.252619</v>
       </c>
       <c r="O3">
-        <v>0.09423708950643275</v>
+        <v>0.06259381042167039</v>
       </c>
       <c r="P3">
-        <v>0.09423708950643273</v>
+        <v>0.06259381042167038</v>
       </c>
       <c r="Q3">
-        <v>1.304825936909</v>
+        <v>1.865207602409556</v>
       </c>
       <c r="R3">
-        <v>11.743433432181</v>
+        <v>16.786868421686</v>
       </c>
       <c r="S3">
-        <v>0.00319094535894034</v>
+        <v>0.00323754492544828</v>
       </c>
       <c r="T3">
-        <v>0.003190945358940339</v>
+        <v>0.00323754492544828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.539733</v>
+        <v>0.7715313333333333</v>
       </c>
       <c r="H4">
-        <v>1.619199</v>
+        <v>2.314594</v>
       </c>
       <c r="I4">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="J4">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9363953333333331</v>
+        <v>0.7420966666666667</v>
       </c>
       <c r="N4">
-        <v>2.809186</v>
+        <v>2.22629</v>
       </c>
       <c r="O4">
-        <v>0.0365012297657188</v>
+        <v>0.01921402105965591</v>
       </c>
       <c r="P4">
-        <v>0.0365012297657188</v>
+        <v>0.01921402105965591</v>
       </c>
       <c r="Q4">
-        <v>0.5054034624459999</v>
+        <v>0.5725508306955556</v>
       </c>
       <c r="R4">
-        <v>4.548631162013999</v>
+        <v>5.15295747626</v>
       </c>
       <c r="S4">
-        <v>0.001235961661449495</v>
+        <v>0.0009938084286622874</v>
       </c>
       <c r="T4">
-        <v>0.001235961661449495</v>
+        <v>0.0009938084286622876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.539733</v>
+        <v>0.7715313333333333</v>
       </c>
       <c r="H5">
-        <v>1.619199</v>
+        <v>2.314594</v>
       </c>
       <c r="I5">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="J5">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.06935333333333</v>
+        <v>14.14453733333333</v>
       </c>
       <c r="N5">
-        <v>30.20806</v>
+        <v>42.433612</v>
       </c>
       <c r="O5">
-        <v>0.3925091962001162</v>
+        <v>0.3662237689632831</v>
       </c>
       <c r="P5">
-        <v>0.3925091962001162</v>
+        <v>0.3662237689632831</v>
       </c>
       <c r="Q5">
-        <v>5.434762282659999</v>
+        <v>10.91295374816978</v>
       </c>
       <c r="R5">
-        <v>48.91286054393999</v>
+        <v>98.216583733528</v>
       </c>
       <c r="S5">
-        <v>0.01329068421484588</v>
+        <v>0.01894222282999303</v>
       </c>
       <c r="T5">
-        <v>0.01329068421484588</v>
+        <v>0.01894222282999303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.713472666666667</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H6">
         <v>11.140418</v>
       </c>
       <c r="I6">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="J6">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.230514</v>
+        <v>21.31848966666667</v>
       </c>
       <c r="N6">
-        <v>36.69154200000001</v>
+        <v>63.955469</v>
       </c>
       <c r="O6">
-        <v>0.4767524845277323</v>
+        <v>0.5519683995553906</v>
       </c>
       <c r="P6">
-        <v>0.4767524845277322</v>
+        <v>0.5519683995553906</v>
       </c>
       <c r="Q6">
-        <v>45.417679438284</v>
+        <v>79.16562867178244</v>
       </c>
       <c r="R6">
-        <v>408.7591149445561</v>
+        <v>712.490658046042</v>
       </c>
       <c r="S6">
-        <v>0.1110687098700274</v>
+        <v>0.1374121996099253</v>
       </c>
       <c r="T6">
-        <v>0.1110687098700274</v>
+        <v>0.1374121996099253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.713472666666667</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H7">
         <v>11.140418</v>
       </c>
       <c r="I7">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="J7">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.417539666666666</v>
+        <v>2.417539666666667</v>
       </c>
       <c r="N7">
-        <v>7.252618999999999</v>
+        <v>7.252619</v>
       </c>
       <c r="O7">
-        <v>0.09423708950643275</v>
+        <v>0.06259381042167039</v>
       </c>
       <c r="P7">
-        <v>0.09423708950643273</v>
+        <v>0.06259381042167038</v>
       </c>
       <c r="Q7">
         <v>8.97746747274911</v>
@@ -883,10 +883,10 @@
         <v>80.79720725474199</v>
       </c>
       <c r="S7">
-        <v>0.02195435219127199</v>
+        <v>0.01558269128982131</v>
       </c>
       <c r="T7">
-        <v>0.02195435219127199</v>
+        <v>0.01558269128982131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.713472666666667</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H8">
         <v>11.140418</v>
       </c>
       <c r="I8">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="J8">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9363953333333331</v>
+        <v>0.7420966666666667</v>
       </c>
       <c r="N8">
-        <v>2.809186</v>
+        <v>2.22629</v>
       </c>
       <c r="O8">
-        <v>0.0365012297657188</v>
+        <v>0.01921402105965591</v>
       </c>
       <c r="P8">
-        <v>0.0365012297657188</v>
+        <v>0.01921402105965591</v>
       </c>
       <c r="Q8">
-        <v>3.477278475527555</v>
+        <v>2.755755687691111</v>
       </c>
       <c r="R8">
-        <v>31.295506279748</v>
+        <v>24.80180118922</v>
       </c>
       <c r="S8">
-        <v>0.008503667270373723</v>
+        <v>0.004783318935079354</v>
       </c>
       <c r="T8">
-        <v>0.008503667270373721</v>
+        <v>0.004783318935079354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.713472666666667</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H9">
         <v>11.140418</v>
       </c>
       <c r="I9">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="J9">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.06935333333333</v>
+        <v>14.14453733333333</v>
       </c>
       <c r="N9">
-        <v>30.20806</v>
+        <v>42.433612</v>
       </c>
       <c r="O9">
-        <v>0.3925091962001162</v>
+        <v>0.3662237689632831</v>
       </c>
       <c r="P9">
-        <v>0.3925091962001162</v>
+        <v>0.3662237689632831</v>
       </c>
       <c r="Q9">
-        <v>37.39226837434222</v>
+        <v>52.52535276997954</v>
       </c>
       <c r="R9">
-        <v>336.5304153690799</v>
+        <v>472.7281749298159</v>
       </c>
       <c r="S9">
-        <v>0.09144260690587439</v>
+        <v>0.09117118603749308</v>
       </c>
       <c r="T9">
-        <v>0.09144260690587437</v>
+        <v>0.09117118603749308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.049821333333333</v>
+        <v>1.701035666666667</v>
       </c>
       <c r="H10">
-        <v>3.149464</v>
+        <v>5.103107</v>
       </c>
       <c r="I10">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="J10">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.230514</v>
+        <v>21.31848966666667</v>
       </c>
       <c r="N10">
-        <v>36.69154200000001</v>
+        <v>63.955469</v>
       </c>
       <c r="O10">
-        <v>0.4767524845277323</v>
+        <v>0.5519683995553906</v>
       </c>
       <c r="P10">
-        <v>0.4767524845277322</v>
+        <v>0.5519683995553906</v>
       </c>
       <c r="Q10">
-        <v>12.839854514832</v>
+        <v>36.26351128246478</v>
       </c>
       <c r="R10">
-        <v>115.558690633488</v>
+        <v>326.371601542183</v>
       </c>
       <c r="S10">
-        <v>0.03139980055165759</v>
+        <v>0.06294460025780067</v>
       </c>
       <c r="T10">
-        <v>0.03139980055165759</v>
+        <v>0.06294460025780067</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.049821333333333</v>
+        <v>1.701035666666667</v>
       </c>
       <c r="H11">
-        <v>3.149464</v>
+        <v>5.103107</v>
       </c>
       <c r="I11">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="J11">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.417539666666666</v>
+        <v>2.417539666666667</v>
       </c>
       <c r="N11">
-        <v>7.252618999999999</v>
+        <v>7.252619</v>
       </c>
       <c r="O11">
-        <v>0.09423708950643275</v>
+        <v>0.06259381042167039</v>
       </c>
       <c r="P11">
-        <v>0.09423708950643273</v>
+        <v>0.06259381042167038</v>
       </c>
       <c r="Q11">
-        <v>2.537984716246222</v>
+        <v>4.112321198581444</v>
       </c>
       <c r="R11">
-        <v>22.841862446216</v>
+        <v>37.010890787233</v>
       </c>
       <c r="S11">
-        <v>0.00620662903938903</v>
+        <v>0.007137985396950652</v>
       </c>
       <c r="T11">
-        <v>0.006206629039389028</v>
+        <v>0.007137985396950651</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.049821333333333</v>
+        <v>1.701035666666667</v>
       </c>
       <c r="H12">
-        <v>3.149464</v>
+        <v>5.103107</v>
       </c>
       <c r="I12">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="J12">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9363953333333331</v>
+        <v>0.7420966666666667</v>
       </c>
       <c r="N12">
-        <v>2.809186</v>
+        <v>2.22629</v>
       </c>
       <c r="O12">
-        <v>0.0365012297657188</v>
+        <v>0.01921402105965591</v>
       </c>
       <c r="P12">
-        <v>0.0365012297657188</v>
+        <v>0.01921402105965591</v>
       </c>
       <c r="Q12">
-        <v>0.9830477973671109</v>
+        <v>1.262332898114445</v>
       </c>
       <c r="R12">
-        <v>8.847430176303998</v>
+        <v>11.36099608303</v>
       </c>
       <c r="S12">
-        <v>0.002404038514176067</v>
+        <v>0.002191101657122381</v>
       </c>
       <c r="T12">
-        <v>0.002404038514176066</v>
+        <v>0.002191101657122381</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.049821333333333</v>
+        <v>1.701035666666667</v>
       </c>
       <c r="H13">
-        <v>3.149464</v>
+        <v>5.103107</v>
       </c>
       <c r="I13">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="J13">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.06935333333333</v>
+        <v>14.14453733333333</v>
       </c>
       <c r="N13">
-        <v>30.20806</v>
+        <v>42.433612</v>
       </c>
       <c r="O13">
-        <v>0.3925091962001162</v>
+        <v>0.3662237689632831</v>
       </c>
       <c r="P13">
-        <v>0.3925091962001162</v>
+        <v>0.3662237689632831</v>
       </c>
       <c r="Q13">
-        <v>10.57102194220444</v>
+        <v>24.06036249249822</v>
       </c>
       <c r="R13">
-        <v>95.13919747983999</v>
+        <v>216.543262432484</v>
       </c>
       <c r="S13">
-        <v>0.02585138174494016</v>
+        <v>0.04176291389301849</v>
       </c>
       <c r="T13">
-        <v>0.02585138174494016</v>
+        <v>0.04176291389301849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.63672166666667</v>
+        <v>8.730536666666668</v>
       </c>
       <c r="H14">
-        <v>31.910165</v>
+        <v>26.19161</v>
       </c>
       <c r="I14">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="J14">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.230514</v>
+        <v>21.31848966666667</v>
       </c>
       <c r="N14">
-        <v>36.69154200000001</v>
+        <v>63.955469</v>
       </c>
       <c r="O14">
-        <v>0.4767524845277323</v>
+        <v>0.5519683995553906</v>
       </c>
       <c r="P14">
-        <v>0.4767524845277322</v>
+        <v>0.5519683995553906</v>
       </c>
       <c r="Q14">
-        <v>130.09257325827</v>
+        <v>186.1218557127878</v>
       </c>
       <c r="R14">
-        <v>1170.83315932443</v>
+        <v>1675.09670141509</v>
       </c>
       <c r="S14">
-        <v>0.3181407428598912</v>
+        <v>0.3230620916939846</v>
       </c>
       <c r="T14">
-        <v>0.3181407428598912</v>
+        <v>0.3230620916939846</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.63672166666667</v>
+        <v>8.730536666666668</v>
       </c>
       <c r="H15">
-        <v>31.910165</v>
+        <v>26.19161</v>
       </c>
       <c r="I15">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="J15">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.417539666666666</v>
+        <v>2.417539666666667</v>
       </c>
       <c r="N15">
-        <v>7.252618999999999</v>
+        <v>7.252619</v>
       </c>
       <c r="O15">
-        <v>0.09423708950643275</v>
+        <v>0.06259381042167039</v>
       </c>
       <c r="P15">
-        <v>0.09423708950643273</v>
+        <v>0.06259381042167038</v>
       </c>
       <c r="Q15">
-        <v>25.71469655245944</v>
+        <v>21.10641870295445</v>
       </c>
       <c r="R15">
-        <v>231.432268972135</v>
+        <v>189.95776832659</v>
       </c>
       <c r="S15">
-        <v>0.06288516291683138</v>
+        <v>0.03663558880945014</v>
       </c>
       <c r="T15">
-        <v>0.06288516291683137</v>
+        <v>0.03663558880945014</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.63672166666667</v>
+        <v>8.730536666666668</v>
       </c>
       <c r="H16">
-        <v>31.910165</v>
+        <v>26.19161</v>
       </c>
       <c r="I16">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="J16">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9363953333333331</v>
+        <v>0.7420966666666667</v>
       </c>
       <c r="N16">
-        <v>2.809186</v>
+        <v>2.22629</v>
       </c>
       <c r="O16">
-        <v>0.0365012297657188</v>
+        <v>0.01921402105965591</v>
       </c>
       <c r="P16">
-        <v>0.0365012297657188</v>
+        <v>0.01921402105965591</v>
       </c>
       <c r="Q16">
-        <v>9.96017653063222</v>
+        <v>6.478902158544446</v>
       </c>
       <c r="R16">
-        <v>89.64158877568998</v>
+        <v>58.3101194269</v>
       </c>
       <c r="S16">
-        <v>0.02435756231971952</v>
+        <v>0.01124579203879188</v>
       </c>
       <c r="T16">
-        <v>0.02435756231971951</v>
+        <v>0.01124579203879188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.63672166666667</v>
+        <v>8.730536666666668</v>
       </c>
       <c r="H17">
-        <v>31.910165</v>
+        <v>26.19161</v>
       </c>
       <c r="I17">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="J17">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.06935333333333</v>
+        <v>14.14453733333333</v>
       </c>
       <c r="N17">
-        <v>30.20806</v>
+        <v>42.433612</v>
       </c>
       <c r="O17">
-        <v>0.3925091962001162</v>
+        <v>0.3662237689632831</v>
       </c>
       <c r="P17">
-        <v>0.3925091962001162</v>
+        <v>0.3662237689632831</v>
       </c>
       <c r="Q17">
-        <v>107.1049087699889</v>
+        <v>123.4894018217022</v>
       </c>
       <c r="R17">
-        <v>963.9441789298999</v>
+        <v>1111.40461639532</v>
       </c>
       <c r="S17">
-        <v>0.2619245233344558</v>
+        <v>0.2143474462027785</v>
       </c>
       <c r="T17">
-        <v>0.2619245233344558</v>
+        <v>0.2143474462027785</v>
       </c>
     </row>
   </sheetData>
